--- a/11/db.xlsx
+++ b/11/db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤재\Desktop\rule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤재\Desktop\rule\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F4E6037-3E3F-442C-A32E-65771F0F9790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA1B9E9-4231-4EA6-8863-581EB3A8405F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="2544" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SecurityGroupRule_List (2)" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
-  <si>
-    <t>Outbound</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>TCP Port</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -113,22 +110,13 @@
     <t>직접입력(Direct Input)</t>
   </si>
   <si>
-    <t>192.168.0.0/24</t>
-  </si>
-  <si>
-    <t>0.0.0.0/0</t>
-  </si>
-  <si>
-    <t>80, 443</t>
-  </si>
-  <si>
-    <t>22, 3306</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>192.168.12.0/24</t>
+  </si>
+  <si>
+    <t>22, 2866, 3306</t>
   </si>
 </sst>
 </file>
@@ -810,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,9 +817,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,9 +845,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1186,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1209,189 +1191,105 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="265.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>9</v>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3306</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2866</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D16" s="3" t="s">
-        <v>23</v>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"직접입력, ALL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>"직접입력(Direct Input), ALL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Inbound, Outbound"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D9" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"직접입력(Direct Input), ALL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/11/db.xlsx
+++ b/11/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤재\Desktop\rule\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA1B9E9-4231-4EA6-8863-581EB3A8405F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E20BF68-BE00-43EE-9F10-844ACA3BCBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2544" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SecurityGroupRule_List (2)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>TCP Port</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -116,14 +116,23 @@
     <t>192.168.12.0/24</t>
   </si>
   <si>
+    <t>2866, 3306</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.0/24</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>22, 2866, 3306</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,14 +314,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="2" tint="-0.249977111117893"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -798,15 +799,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -814,37 +809,31 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1171,121 +1160,126 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="3" customWidth="1"/>
-    <col min="5" max="7" width="25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="36" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.8984375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.8984375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.8984375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="265.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"직접입력, ALL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{00000000-0002-0000-0000-000002000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"직접입력(Direct Input), ALL"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000001000000}">
